--- a/Tag 2 Auswertungen/Glucose Auswertung.xlsx
+++ b/Tag 2 Auswertungen/Glucose Auswertung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\Tag 2 Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB338987-F5CF-468F-8A46-D02E8144D596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC8E20-E84C-4402-957E-1260EF1F9B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.7.3.0
 Tecan.At.Common.DocumentManagement, 3.7.3.0
@@ -112,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">MTP, V_3.37_07/12_Infinite (Jul 20 2012/13.56.47)
 HCP, V_2.02_05/06_HCP (May 23 2006/14.05.27)
@@ -363,7 +363,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -616,7 +616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -690,7 +690,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -975,7 +975,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1013,7 +1013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="726777520"/>
@@ -1092,7 +1092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1130,7 +1130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="726771696"/>
@@ -1178,7 +1178,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2109,18 +2109,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="3" width="14.06640625" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -2187,12 +2187,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2234,12 +2234,12 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -2304,12 +2304,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -2354,20 +2354,20 @@
         <v>0.35910001397132874</v>
       </c>
       <c r="H29" s="6">
-        <v>0.34330001473426819</v>
+        <v>0.34330001473426802</v>
       </c>
       <c r="I29" s="6">
-        <v>0.30480000376701355</v>
+        <v>0.30480000376701399</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L29">
         <f>_xlfn.STDEV.S(G29:I29)</f>
-        <v>2.7929619667295191E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+        <v>2.7929619667294923E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -2385,17 +2385,17 @@
         <v>1.1940000057220459</v>
       </c>
       <c r="H30" s="6">
-        <v>1.1835999488830566</v>
+        <v>1.18359994888305</v>
       </c>
       <c r="I30" s="6">
         <v>0.98809999227523804</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L36" si="0">_xlfn.STDEV.S(G30:I30)</f>
-        <v>0.11599081124045187</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0.1159908112404501</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>3.2130561077037288E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>6.4390195172246423E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0.29750001430511475</v>
       </c>
       <c r="H33" s="8">
-        <v>0.27500000596046448</v>
+        <v>0.27500000596046398</v>
       </c>
       <c r="I33" s="8">
         <v>0.25279998779296875</v>
@@ -2485,7 +2485,7 @@
         <v>2.235018102959134E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2503,17 +2503,17 @@
         <v>1.0822000503540039</v>
       </c>
       <c r="H34" s="8">
-        <v>0.9179999828338623</v>
+        <v>0.91799998283386197</v>
       </c>
       <c r="I34" s="8">
-        <v>0.80849999189376831</v>
+        <v>0.80849999189376798</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>0.13775801984557082</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.13775801984557162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2534,17 +2534,17 @@
         <v>0.38789999485015869</v>
       </c>
       <c r="I35" s="9">
-        <v>0.38929998874664307</v>
+        <v>0.38929998874664301</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>55</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>3.1184783416042274E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+        <v>3.1184783416042292E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2562,17 +2562,17 @@
         <v>1.1606999635696411</v>
       </c>
       <c r="H36" s="9">
-        <v>1.1477999687194824</v>
+        <v>1.14779996871948</v>
       </c>
       <c r="I36" s="9">
         <v>0.86110001802444458</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>0.16937305913591824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.16937305913591955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>45</v>
       </c>
@@ -2580,10 +2580,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
         <v>50</v>
@@ -2598,7 +2598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>8.5049036212444054E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1.0075877501260856E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>39</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>2.2666280838217426E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>40</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>3.5386765143740784E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>41</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>3.1795648014023646E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>42</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>8.4813568550263244E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>5.8376620704490415E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>44</v>
       </c>
@@ -2757,12 +2757,12 @@
         <v>4.2968074795102458E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>67</v>
       </c>
@@ -2773,29 +2773,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="6">
         <f>((HARMEAN(G29:I29)-0.0264)/0.9524)*50</f>
-        <v>16.155614957661378</v>
+        <v>16.155614957661385</v>
       </c>
       <c r="C59">
         <f>HARMEAN(B59,B60)</f>
-        <v>13.37657451624173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13.376574516241718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="6">
         <f>((HARMEAN(G30:I30)-0.0264)/0.9524)*10</f>
-        <v>11.413293919642996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11.413293919642975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>61</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>11.815340472790945</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
@@ -2817,29 +2817,29 @@
         <v>10.380423628369053</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="8">
         <f t="shared" si="4"/>
-        <v>12.992831364153833</v>
+        <v>12.992831364153822</v>
       </c>
       <c r="C63">
         <f t="shared" si="5"/>
-        <v>10.917773089310151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10.917773089310147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="8">
         <f>((HARMEAN(G34:I34)-0.0264)/0.9524)*10</f>
-        <v>9.4142436678306627</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9.4142436678306609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>66</v>
       </c>
@@ -2849,19 +2849,19 @@
       </c>
       <c r="C65">
         <f>HARMEAN(B65,B66)</f>
-        <v>13.833108544809297</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13.83310854480929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="10">
         <f>((HARMEAN(G36:I36)-0.0264)/0.9524)*10</f>
-        <v>10.606852016943904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+        <v>10.606852016943897</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C70">
         <v>15.20037885</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>10.149440551823648</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C71">
         <v>15.703411631816754</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>10.025043075489688</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C72">
         <v>13.439998664986309</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>9.6384668872267216</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C73">
         <v>18.045943116355122</v>
       </c>
@@ -2893,8 +2893,8 @@
         <v>11.308625210705376</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="76" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C76" s="11">
         <v>0.10377375</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>1.0377375</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C77" s="12">
         <v>9.6795350000000002E-2</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0.96795350000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C78" s="12">
         <v>8.5536509999999996E-2</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0.85536509999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C79" s="12">
         <v>5.0198E-2</v>
       </c>
@@ -2944,7 +2944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
